--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B37BE-06FC-4759-8F80-EC525BAA6EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C27F7B-EE79-4573-AEAD-DC52F7103CEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Fragen</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>EINFÜHRUNG / IMPLEMENTIERUNG / DATENMIGRATION (inkl. Schulung)</t>
+  </si>
+  <si>
+    <t>Spezifischer Teil</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,9 +407,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -451,6 +451,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -749,434 +758,438 @@
     <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FAEF97-235C-4653-8EF1-8350892D0FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F651EAD-8E56-4B65-A5E8-A15F82DAC014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Was muss ein CRM-System unbedingt können, damit es Ihnen einen Mehrwert stiftet?</t>
-  </si>
-  <si>
-    <t>Was wäre ein Knock-out Kriterium, bei dem Sie das CRM-System nicht nutzen würdest?</t>
   </si>
   <si>
     <t>Mit welchen Funktionen des CRM-Systems arbeiten Sie häufig und warum?</t>
@@ -187,9 +184,6 @@
     <t>Welche Möglichkeiten der Dublettenerkennung  sind vorhanden?</t>
   </si>
   <si>
-    <t>Welche Informationen beim Event Management können verfolgt werden?</t>
-  </si>
-  <si>
     <t>An wie viele Kontakte werden Einladungen ausgesandt?</t>
   </si>
   <si>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>Welche Daten sind für die Registrierung erforderlich?</t>
+  </si>
+  <si>
+    <t>Was wäre ein Knock-out Kriterium, bei dem Sie das CRM-System nicht nutzen würden?</t>
+  </si>
+  <si>
+    <t>Welche Informationen werden beim Event Management können verfolgt?</t>
   </si>
 </sst>
 </file>
@@ -814,22 +814,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -838,8 +838,8 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -909,9 +909,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -919,9 +919,9 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -929,7 +929,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -949,9 +949,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -959,9 +959,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -969,9 +969,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -979,7 +979,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -987,9 +987,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -997,9 +997,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:16384" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16384" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1007,9 +1007,9 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:16384" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16384" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1017,9 +1017,9 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:16384" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16384" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1027,9 +1027,9 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1037,9 +1037,9 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -17200,9 +17200,9 @@
       <c r="XFC22" s="7"/>
       <c r="XFD22" s="7"/>
     </row>
-    <row r="23" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -33363,9 +33363,9 @@
       <c r="XFC23" s="21"/>
       <c r="XFD23" s="21"/>
     </row>
-    <row r="24" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -49526,9 +49526,9 @@
       <c r="XFC24" s="21"/>
       <c r="XFD24" s="21"/>
     </row>
-    <row r="25" spans="1:16384" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16384" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -49761,9 +49761,9 @@
       <c r="HV25" s="1"/>
       <c r="HW25" s="1"/>
     </row>
-    <row r="26" spans="1:16384" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="13" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -49996,9 +49996,9 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -50006,9 +50006,9 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -50016,9 +50016,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:16384" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16384" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -50026,9 +50026,9 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -50036,9 +50036,9 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -50046,9 +50046,9 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -50056,9 +50056,9 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -50066,9 +50066,9 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50076,9 +50076,9 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -50086,9 +50086,9 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -50096,9 +50096,9 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -50106,9 +50106,9 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -50116,9 +50116,9 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -50126,9 +50126,9 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -50136,9 +50136,9 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -50146,9 +50146,9 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -50156,9 +50156,9 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -50166,9 +50166,9 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -50176,9 +50176,9 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -50186,9 +50186,9 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -50196,9 +50196,9 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -50206,9 +50206,9 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -50216,9 +50216,9 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -50226,9 +50226,9 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -50236,7 +50236,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
@@ -50246,7 +50246,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>3</v>
       </c>
@@ -50256,9 +50256,9 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -50266,7 +50266,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>6</v>
       </c>
@@ -50276,7 +50276,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>8</v>
       </c>
@@ -50286,7 +50286,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -50294,7 +50294,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>7</v>
       </c>
@@ -50304,9 +50304,9 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -50314,7 +50314,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>4</v>
       </c>
@@ -50324,7 +50324,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>5</v>
       </c>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F651EAD-8E56-4B65-A5E8-A15F82DAC014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CECB1-785C-834E-A2D2-25F511A46FF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Fragen</t>
   </si>
@@ -72,16 +67,10 @@
     <t>Michael Holoubek</t>
   </si>
   <si>
-    <t>Was bedeutet für Sie CRM?</t>
-  </si>
-  <si>
     <t>Was gefällt Ihnen am derzeitigen CRM-System?</t>
   </si>
   <si>
     <t>Was ist verbesserungswürdig am derzeitigen CRM-System?</t>
-  </si>
-  <si>
-    <t>Welche Funktionen/Möglichkeiten vermissen Sie im derzeitigen CRM-System?</t>
   </si>
   <si>
     <t>Welche Abteilungen/Stakeholder/Personen sollten Ihrer Meinung nach Zugang zum CRM-System haben?</t>
@@ -94,9 +83,6 @@
   </si>
   <si>
     <t>Mit welchen Funktionen des CRM-Systems arbeiten Sie selten/gar nicht und warum?</t>
-  </si>
-  <si>
-    <t>Wieviele Kontake sollen zukünftig mit der CRM Lösung verwaltet werden?</t>
   </si>
   <si>
     <t>Wieviel Speicherplatz steht bei der derzeitigen CRM Lösung zu Verfügung?</t>
@@ -160,15 +146,6 @@
     <t>Welche Inhalte können für die Soll-Ist Vergleiche abgerufen werden?</t>
   </si>
   <si>
-    <t>Welche Informationen können beim Eintragen von Stammdaten hinterlegt werden?</t>
-  </si>
-  <si>
-    <t>Wie ist die Suchfunktion im Programm aufgebaut?</t>
-  </si>
-  <si>
-    <t>Wie können Daten ausgegeben werden?</t>
-  </si>
-  <si>
     <t>Von wem können Änderungen an den Daten vorgenommen werden?</t>
   </si>
   <si>
@@ -223,7 +200,31 @@
     <t>Was wäre ein Knock-out Kriterium, bei dem Sie das CRM-System nicht nutzen würden?</t>
   </si>
   <si>
-    <t>Welche Informationen werden beim Event Management können verfolgt?</t>
+    <t>Wieviele Kontake sollen zukünftig mit der CRM Lösung verwaltet werden? --&gt; wichtige Frage für die Auswahl der Lösung aber nicht fürs interview</t>
+  </si>
+  <si>
+    <t>Welche Funktionen/Möglichkeiten vermissen Sie im derzeitigen CRM-System? --&gt;welche funktionen werden genutzt --&gt; vor dieser</t>
+  </si>
+  <si>
+    <t>Welche Informationen können beim Eintragen von von institutsnahen Personen  hinterlegt werden?--&gt; wir unterscheiden von den Daten der Kunden und denen die zum Institut gehören</t>
+  </si>
+  <si>
+    <t>Wie können Daten dargestellt werden?</t>
+  </si>
+  <si>
+    <t>Wie ist die Suchfunktion im Programm aufgebaut? --&gt; Userinterface , Datenbank.. ? --&gt; durch die Module suchen</t>
+  </si>
+  <si>
+    <t>Welche Informationen werden beim Event Management können verfolgt? --&gt;tracken</t>
+  </si>
+  <si>
+    <t>Auf das Eventmanagement genauer eingehen --&gt; wie soll es funktionieren?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was bedeutet für Sie CRM? Was soll das neue CRM-System unbedingt können? </t>
+  </si>
+  <si>
+    <t>Wie soll das Event-Management funktionieren? Was soll es machen?</t>
   </si>
 </sst>
 </file>
@@ -812,24 +813,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD60"/>
+  <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.88671875" style="1"/>
+    <col min="5" max="5" width="57.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -838,8 +839,8 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,9 +860,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -869,7 +870,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
@@ -879,9 +880,9 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -889,9 +890,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -899,9 +900,9 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -909,9 +910,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -919,9 +920,9 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -929,9 +930,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -939,9 +940,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -949,9 +950,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -959,9 +960,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -969,9 +970,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -979,7 +980,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -987,9 +988,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -997,9 +998,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:16384" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1007,9 +1008,9 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:16384" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1017,9 +1018,9 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:16384" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1027,9 +1028,9 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16384" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1037,9 +1038,9 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -17200,9 +17201,9 @@
       <c r="XFC22" s="7"/>
       <c r="XFD22" s="7"/>
     </row>
-    <row r="23" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -33363,9 +33364,9 @@
       <c r="XFC23" s="21"/>
       <c r="XFD23" s="21"/>
     </row>
-    <row r="24" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -49526,9 +49527,9 @@
       <c r="XFC24" s="21"/>
       <c r="XFD24" s="21"/>
     </row>
-    <row r="25" spans="1:16384" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -49761,9 +49762,9 @@
       <c r="HV25" s="1"/>
       <c r="HW25" s="1"/>
     </row>
-    <row r="26" spans="1:16384" s="13" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16384" s="13" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -49996,9 +49997,9 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -50006,9 +50007,9 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -50016,9 +50017,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:16384" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -50026,9 +50027,9 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
+    <row r="30" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
+      <c r="A30" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -50036,19 +50037,19 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>61</v>
+    <row r="31" spans="1:16384" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -50056,9 +50057,9 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -50066,9 +50067,9 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50076,9 +50077,9 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -50086,9 +50087,9 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -50096,39 +50097,39 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>26</v>
+    <row r="37" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>43</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>30</v>
+    <row r="38" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>23</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>36</v>
+    <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>27</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -50136,19 +50137,19 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>38</v>
+    <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -50156,69 +50157,69 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>31</v>
+    <row r="43" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>32</v>
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>28</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>44</v>
+    <row r="45" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>29</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>56</v>
+    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>45</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>58</v>
+    <row r="48" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A48" s="20" t="s">
+        <v>50</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -50226,39 +50227,39 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>57</v>
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A50" s="23" t="s">
+        <v>53</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
+    <row r="51" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>51</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>3</v>
+    <row r="52" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -50266,9 +50267,9 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -50276,9 +50277,9 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -50286,47 +50287,47 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>7</v>
-      </c>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>34</v>
+    <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -50334,6 +50335,21 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CECB1-785C-834E-A2D2-25F511A46FF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27395799-3666-9646-83F9-D132B18E0AAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3D10B-85FA-41E4-AB04-7A92C00DF43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CFB60-3442-417E-95BE-4A0CD64C689D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="465" windowWidth="25605" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Derzeitiges CRM-System</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Existieren Warn- und Erinnerungsfunktionen beim Aussenden von Mails?</t>
+  </si>
+  <si>
+    <t>crm.ie.jku</t>
+  </si>
+  <si>
+    <t>Übersicht --&gt; Kontakte, events, mails</t>
   </si>
 </sst>
 </file>
@@ -818,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,7 +867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>54</v>
       </c>
@@ -871,7 +877,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>55</v>
       </c>
@@ -885,7 +891,9 @@
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -915,7 +923,9 @@
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -50278,7 +50288,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>28</v>
       </c>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CFB60-3442-417E-95BE-4A0CD64C689D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3D10B-85FA-41E4-AB04-7A92C00DF43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="465" windowWidth="25605" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Derzeitiges CRM-System</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>Existieren Warn- und Erinnerungsfunktionen beim Aussenden von Mails?</t>
-  </si>
-  <si>
-    <t>crm.ie.jku</t>
-  </si>
-  <si>
-    <t>Übersicht --&gt; Kontakte, events, mails</t>
   </si>
 </sst>
 </file>
@@ -824,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -867,7 +861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>54</v>
       </c>
@@ -877,7 +871,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>55</v>
       </c>
@@ -891,9 +885,7 @@
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -923,9 +915,7 @@
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -50288,7 +50278,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>28</v>
       </c>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3D10B-85FA-41E4-AB04-7A92C00DF43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F2A0B-615E-0040-8B3B-B3474D703441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="465" windowWidth="25605" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Derzeitiges CRM-System</t>
   </si>
@@ -227,6 +227,99 @@
   <si>
     <t>Existieren Warn- und Erinnerungsfunktionen beim Aussenden von Mails?</t>
   </si>
+  <si>
+    <t>CSV Export, für sämtliche Listen, Gäste, Kontakte.. Der CSV Export als Excel-Datei..Import vielleicht auch..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwaltung sehr überscihtlich, einzelne Veranstaltungen sehr übersichtlich.. Direkte Festlegung von verschiedenen Sachen möglich. </t>
+  </si>
+  <si>
+    <t>Nicht alle Kontakt werden auf eine Seite angezeigt.. Wäre gut wenn alle auf einer Seite sind. Wäre gut wenn man einzelne filtern könnte..</t>
+  </si>
+  <si>
+    <t>Wenn die Startseite etwas übersichtlicher wäre.. Kontakte, Veranstaltungen, E-Mails…</t>
+  </si>
+  <si>
+    <t>300+</t>
+  </si>
+  <si>
+    <t>Barbara, David, Herr Koch, Michael Holubek</t>
+  </si>
+  <si>
+    <t>Massenmails, in Form eines Serienbrifes.. Kontaktverwaltung und Mails ganz wichtig</t>
+  </si>
+  <si>
+    <t>Mails und Kontakte verwalten</t>
+  </si>
+  <si>
+    <t>Direkte Veranstaltung wird nicht von mir gemacht, sondern von der Barbara oder David</t>
+  </si>
+  <si>
+    <t>Titel, Nummer, Adresse, Kommentarfeld, DSGVO..überall Standardmaske..</t>
+  </si>
+  <si>
+    <t>(wie eine Excel-Liste)</t>
+  </si>
+  <si>
+    <t>Barbara, David, Michael.. Koch?</t>
+  </si>
+  <si>
+    <t>selbe wie oben</t>
+  </si>
+  <si>
+    <t>ist nicht im aktuellen System--&gt; wenn es nicht so mühsam ist dann nice to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alles auf einer Seite haben wäre gut --&gt; Suchfeld </t>
+  </si>
+  <si>
+    <t>Event was angelegt wird, mehr nicht.. Chat-Funktion oder Kommentarfeld--&gt; eher Kommentarfeld.. Kein Kalendar verfügbar</t>
+  </si>
+  <si>
+    <t>Nein, das wäre voll cool</t>
+  </si>
+  <si>
+    <t>Accepted, Decline, no response.. Wunschvorstellungen --&gt; ?</t>
+  </si>
+  <si>
+    <t>Link --&gt; automatisch vermerkt bei den Kontakten,.. Eingehende Mails werden verwaltet, und es kommt keine Beanchrichtigung, wäre gut wenn eine kommen würde</t>
+  </si>
+  <si>
+    <t>man kann beides --&gt; Serienbrief wäre gut..</t>
+  </si>
+  <si>
+    <t>kein Kalendar, meistens fixieren Barbara und David den Termin und auf Basis dessen wird das gemacht. .. Relativ übersichtlich Stand jetzt</t>
+  </si>
+  <si>
+    <t>keine Möglichkeit es auszuwerten stand jetzt</t>
+  </si>
+  <si>
+    <t>1 Event bis jetzt, früher nur Excel</t>
+  </si>
+  <si>
+    <t>es wird alles nur noch händisch nachgepflegt, am wichtigsten wäre Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael und ich haben Adminrechte, der Rest nur Wahlrechte. </t>
+  </si>
+  <si>
+    <t>Institutslogin.. Nur a.andorfer.. Ohne jku.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzerfreundlichkeit soll vorhanden sein. </t>
+  </si>
+  <si>
+    <t>Keine echte Vorstellung, vom Michi übernommen, deswegen areite ich damit</t>
+  </si>
+  <si>
+    <t>es wird nicht erkannt, wenn derselbe Eintrag eigetragen wird, wäre besser wenn es das System erkennen könnte</t>
+  </si>
+  <si>
+    <t>ich wüsste nichts davon, Michael weiss mehr bescheid</t>
+  </si>
+  <si>
+    <t>nicht so tragisch wenn es mal ausfällt, außer wenn es vor der Veranstaltung wäre dann wäre es  schlecht.. CRM ist seit Oktober 2018 vorhanden</t>
+  </si>
 </sst>
 </file>
 
@@ -276,12 +369,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -465,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -527,13 +626,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,22 +929,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -842,8 +953,8 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
@@ -854,34 +965,38 @@
       <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -891,48 +1006,56 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5"/>
@@ -941,27 +1064,31 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -971,27 +1098,31 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -999,7 +1130,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
@@ -1009,7 +1140,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:16384" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16384" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1150,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:16384" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1029,18 +1160,20 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:16384" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
+      <c r="A21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:16384" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="10"/>
@@ -1049,11 +1182,13 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -17212,11 +17347,13 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -33375,11 +33512,13 @@
       <c r="XFC24" s="20"/>
       <c r="XFD24" s="20"/>
     </row>
-    <row r="25" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
+      <c r="A25" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -49538,11 +49677,13 @@
       <c r="XFC25" s="20"/>
       <c r="XFD25" s="20"/>
     </row>
-    <row r="26" spans="1:16384" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16384" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -49773,11 +49914,13 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" s="12" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" s="12" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -50008,17 +50151,19 @@
       <c r="HV27" s="1"/>
       <c r="HW27" s="1"/>
     </row>
-    <row r="28" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -50028,7 +50173,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:16384" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
@@ -50038,77 +50183,91 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:16384" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16384" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:16384" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
+      <c r="A32" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="10">
+        <v>250</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -50118,7 +50277,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -50128,7 +50287,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
@@ -50138,37 +50297,43 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A41" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>34</v>
       </c>
@@ -50178,7 +50343,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -50188,7 +50353,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>27</v>
       </c>
@@ -50198,28 +50363,32 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A47" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A49" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="10"/>
@@ -50228,28 +50397,32 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A50" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A51" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
@@ -50258,7 +50431,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -50268,7 +50441,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>2</v>
       </c>
@@ -50278,7 +50451,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>28</v>
       </c>
@@ -50288,7 +50461,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
@@ -50298,7 +50471,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>7</v>
       </c>
@@ -50308,7 +50481,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -50316,7 +50489,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>6</v>
       </c>
@@ -50326,17 +50499,19 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
@@ -50346,17 +50521,19 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F2A0B-615E-0040-8B3B-B3474D703441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EB23DF-9F80-924A-A7C4-0B25E7013D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Derzeitiges CRM-System</t>
   </si>
@@ -309,9 +309,6 @@
     <t xml:space="preserve">Benutzerfreundlichkeit soll vorhanden sein. </t>
   </si>
   <si>
-    <t>Keine echte Vorstellung, vom Michi übernommen, deswegen areite ich damit</t>
-  </si>
-  <si>
     <t>es wird nicht erkannt, wenn derselbe Eintrag eigetragen wird, wäre besser wenn es das System erkennen könnte</t>
   </si>
   <si>
@@ -320,12 +317,96 @@
   <si>
     <t>nicht so tragisch wenn es mal ausfällt, außer wenn es vor der Veranstaltung wäre dann wäre es  schlecht.. CRM ist seit Oktober 2018 vorhanden</t>
   </si>
+  <si>
+    <t>Keine echte Vorstellung, vom Michi übernommen, deswegen arbeite ich damit</t>
+  </si>
+  <si>
+    <t>Kundendatenpflege, Beziehungspflege, automatisiert alles..</t>
+  </si>
+  <si>
+    <t>Hat überhaupt keine Relevanz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chef, Andorfer, David, Barbara und ich </t>
+  </si>
+  <si>
+    <t>Selbe wie bei Andorfer</t>
+  </si>
+  <si>
+    <t>Listendarstellungen nur. Gibt nicht viele andere Dartstellungsmöglichkeiten, soweit ich weiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich weiß nicht.. Das Modul gibt es glaube ich, aber ich weiß es nicht. </t>
+  </si>
+  <si>
+    <t>Gar keine. Bei Bedarf aus irgendwelchen Excellisten oder halt CSV Import</t>
+  </si>
+  <si>
+    <t>Vorname Nachname Email</t>
+  </si>
+  <si>
+    <t>Windows oder Linux.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Über iMap.. Im CRM die INBOX wird abgerufen.. Integrationsfähigkeit relativ weit verstreut. </t>
+  </si>
+  <si>
+    <t>Deutlich verbessertes Eventmodul--&gt; Hauptgrund, nach Kundendaten einpfelegen (wen wir alle haben)--&gt; Projektpartner, Studierende</t>
+  </si>
+  <si>
+    <t>Open Source, PHP-Sprache gut…--&gt;erweiterbare Sprache..</t>
+  </si>
+  <si>
+    <t>Eventmodul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export, Import, Sortierung von Statuse.. --&gt; kann man nur mit Copy Paste im jetzigen machen.. Bessere Übersicht, Darstellung von Einladungen etc. </t>
+  </si>
+  <si>
+    <t>Irrelevant.. Hauptsächlich nur Text und keine Files.. --&gt;wir nutzen keine Dokumente.. Wir speichern keine ab im CRM System..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizensprobleme, Exotensoftware.. Wenn nicht Opensource..wenn nicht  Linux oder Windows-Lauffähig..Wenn nicht  Flexibel und ausbaubar. </t>
+  </si>
+  <si>
+    <t>Exportmöglichkeit mit CSV--&gt;Excel..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach verschieden Feldern, Familiennamne, Vorname, E-Mail-Adresse..  Kann man im Backed anpassen. </t>
+  </si>
+  <si>
+    <t>Auf drei oder vier Grundmodule festgelgt.. Er sucht die Kontakte, die Leads.. Man kann es festlegen, wonach er suchen soll</t>
+  </si>
+  <si>
+    <t>Wird nicht genutzt. Wir haben eine FacebookSeite für Wrtschaftsinformatik.. Manuelle Eingabe</t>
+  </si>
+  <si>
+    <t>Sehr wenige, bei OpenSource.. Nur bei Kostenpflichtigeversion möglich zB: das AnalyseFeature</t>
+  </si>
+  <si>
+    <t>Benutzername und Passwort.. Jeder Nutzer hat seinen eigenen Account. Erster Bs vom Vornamen .nachname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in der LVA freien Zeit sollten die Schulungen gemacht werden, wo nicht gerade eine LVA ansteht, sonst eigentlich nichts. </t>
+  </si>
+  <si>
+    <t>Automatismen die man einbaut, beim Login beispielweise … nice to have, muss aber nicht sein</t>
+  </si>
+  <si>
+    <t>OpenSource, erweiterbar, gut dokumentiert.. Sprache nicht so relevant</t>
+  </si>
+  <si>
+    <t>Administratoren, Editoren… für jedes Modul gibt es eigene Settings (nur lesen, nur schreiben..) .. Ich darf alles damit machen.. Imprt, Export.. Relativ fein einstellbar.. Ziemlich umfangreich</t>
+  </si>
+  <si>
+    <t>Module, die es mit iwelchen Shopmodulen und Shopsystemen verbinden, aber müssen wir nachschauen. Typischerweise CSV dateien, Schnittsellen werden nicht uterstützt… wenn wir in dieses Eventmodul ein Event anlegen, wäre es nice to have wenn es automatisiert in die Facebookgruppe aufscheinen würde..</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,18 +450,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -564,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -629,22 +704,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,11 +1007,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -944,7 +1022,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -953,50 +1031,54 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14" thickBot="1"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>12</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="51" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -1006,77 +1088,89 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="28">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:6" ht="28">
+      <c r="A8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="42">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:6" ht="42">
+      <c r="A10" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:6" ht="28">
+      <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="42">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="28">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1088,17 +1182,19 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="28">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="28">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1206,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="28">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1218,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16384">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1130,7 +1226,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16384" ht="15" thickBot="1">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
@@ -1140,7 +1236,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:16384" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16384" ht="42">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1246,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16384" ht="56">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1160,20 +1256,22 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:16384" ht="56">
+      <c r="A21" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:16384" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:16384" ht="14">
+      <c r="A22" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="10"/>
@@ -1182,14 +1280,16 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:16384" ht="29" thickBot="1">
+      <c r="A23" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -17347,7 +17447,7 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16384" ht="28">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -33512,14 +33612,16 @@
       <c r="XFC24" s="20"/>
       <c r="XFD24" s="20"/>
     </row>
-    <row r="25" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:16384" ht="28">
+      <c r="A25" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -49677,14 +49779,16 @@
       <c r="XFC25" s="20"/>
       <c r="XFD25" s="20"/>
     </row>
-    <row r="26" spans="1:16384" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:16384" s="5" customFormat="1" ht="28">
+      <c r="A26" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -49914,14 +50018,16 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" s="12" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16384" s="12" customFormat="1" ht="29" thickBot="1">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -50151,19 +50257,21 @@
       <c r="HV27" s="1"/>
       <c r="HW27" s="1"/>
     </row>
-    <row r="28" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:16384" ht="43" thickBot="1">
+      <c r="A28" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16384" ht="28">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -50173,7 +50281,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:16384" ht="56" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16384" ht="56">
       <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
@@ -50183,7 +50291,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:16384" ht="42" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16384" ht="42">
       <c r="A31" s="19" t="s">
         <v>62</v>
       </c>
@@ -50195,20 +50303,22 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:16384" ht="28" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:16384" ht="28">
+      <c r="A32" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:6" ht="28">
+      <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -50219,8 +50329,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:6" ht="28">
+      <c r="A34" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="10">
@@ -50231,19 +50341,21 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:6" ht="28">
+      <c r="A35" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="28">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
@@ -50255,7 +50367,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="28">
       <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
@@ -50267,7 +50379,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="29" thickBot="1">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -50277,7 +50389,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="29" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -50287,7 +50399,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="14">
       <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
@@ -50297,19 +50409,21 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="14">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -50321,19 +50435,19 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:6" ht="28">
+      <c r="A43" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="29" thickBot="1">
       <c r="A44" s="19" t="s">
         <v>34</v>
       </c>
@@ -50343,7 +50457,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="28">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -50353,7 +50467,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="56">
       <c r="A46" s="9" t="s">
         <v>27</v>
       </c>
@@ -50363,75 +50477,87 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:6" ht="56">
+      <c r="A47" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:6" ht="28">
+      <c r="A48" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:6" ht="28">
+      <c r="A49" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="D49" s="10"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:6" ht="28">
+      <c r="A50" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A51" s="26" t="s">
+    <row r="51" spans="1:6" ht="28">
+      <c r="A51" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:6" ht="29" thickBot="1">
+      <c r="A52" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="14">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -50441,7 +50567,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="28">
       <c r="A54" s="8" t="s">
         <v>2</v>
       </c>
@@ -50451,7 +50577,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="23.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>28</v>
       </c>
@@ -50461,7 +50587,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="14">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
@@ -50471,7 +50597,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="14">
       <c r="A57" s="8" t="s">
         <v>7</v>
       </c>
@@ -50481,7 +50607,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="8"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -50489,7 +50615,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="14">
       <c r="A59" s="13" t="s">
         <v>6</v>
       </c>
@@ -50499,41 +50625,47 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="29" thickBot="1">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="14">
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="28">
       <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="28">
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EB23DF-9F80-924A-A7C4-0B25E7013D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EEA33C-9DBE-7D4B-8F14-12D673EF32F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
   <si>
     <t>Derzeitiges CRM-System</t>
   </si>
@@ -400,6 +400,192 @@
   </si>
   <si>
     <t>Module, die es mit iwelchen Shopmodulen und Shopsystemen verbinden, aber müssen wir nachschauen. Typischerweise CSV dateien, Schnittsellen werden nicht uterstützt… wenn wir in dieses Eventmodul ein Event anlegen, wäre es nice to have wenn es automatisiert in die Facebookgruppe aufscheinen würde..</t>
+  </si>
+  <si>
+    <t>Organisationseinheit mit sehr starkem Fokus auf die Kunden und das als managementaufgabe wahrnimmt</t>
+  </si>
+  <si>
+    <t>in erster Linie Unterstützung bei Tätigkeiten die sehr viel Zeitaufwand aufweisen.. E-Mails.. Arbeitserleichterung soll stattfinden</t>
+  </si>
+  <si>
+    <t>dasss es eine Webapplikation ist.. Anlegen neuer Kontakte sehr gut, Wohlfühlen mit dem System..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dass es wahnisinnig viele Tasks im CRM System gibt, die so wviel Tool Wissen brauchen, die nur der Techniker machen kann. Einladungsliste machen, schauen wie viele Leute am Event teilnehmen.. Sehr sboptimal.. Keine Quuantifizierungsmöglichkeit.. Man muss zählen, woch "Accept" steht und as dann zählen --&gt; sehr mühsam.. man muss sehr viele Dinge wisen, das System hat sehr viele Eigenheiten.. nicht intuitiv.. Bei Einladungsliste von Events --&gt; Zusage erst wenn man 3 Knöpfe drückt... </t>
+  </si>
+  <si>
+    <t>Ich vermisse genau, dass ich Dinge selber machen kann, dass ich Kontakte schnell anlegen kann und Kontakte umassoziieren kann --&gt;wenn jemand Unternehmen wechselt.. Miladresse ändern etc. Vermisse auch ein gutes Eventmanagement..</t>
+  </si>
+  <si>
+    <t>knapp 300 zurzeit, zukünftig auch unsere Projektstudierende dort führen.. Weil diese später Projektpartner werden.. Übergang im System schaffen.. Mehrere Rollen würde ich mir wünschen.. Das nicht jeder Kunde dieselbe Rolle hat.. Multidimensionales System.. Projektpartner können Ansprechpartner, Interviewpartner etc werden ... Mehrdimensionale Pflege wäre gut</t>
+  </si>
+  <si>
+    <t>Veranstalter der Events (LVA-Leiter) Studentische Hilfskräfte und Administration..</t>
+  </si>
+  <si>
+    <t>Wenn es nicht Plattformunabhängig ist, ich werde mir nicht fürs CRM eine Windowsplattform installieren..</t>
+  </si>
+  <si>
+    <t>Wer zugesagt hat und wer nicht für bestimmte Events.. Weitere Kunden anlegen und editieren.</t>
+  </si>
+  <si>
+    <t>Ich brauche keine zusätzliche Informationen für Institutsnahen Personen</t>
+  </si>
+  <si>
+    <t>Company.. Typische Kontaktfelder..Name, Titel , Mail, wozu wir sie einladen? (Abschlussevent, BusinessBrunch) ..offenes Feld, von wem der Kunde kommt (Ansprechpartner für Kunden)</t>
+  </si>
+  <si>
+    <t>von allen die Zugriff haben.</t>
+  </si>
+  <si>
+    <t>nur graphische Repräsentation..</t>
+  </si>
+  <si>
+    <t>keine Ahnung, kann ich nicht beantworten, es war noch nicht der Fall für mich.. Ich habe es nicht getestet</t>
+  </si>
+  <si>
+    <t>nicht relevant</t>
+  </si>
+  <si>
+    <t>ich glaube nicht, sondern nur in dem Modul wo man sich gerade befindet</t>
+  </si>
+  <si>
+    <t>einfacher.. Es soll uns ermöglichen, dasss wir sehr viel selbst machen und nicht so viel auf den Techniker angewiesen..</t>
+  </si>
+  <si>
+    <t>das weiß ich nicht</t>
+  </si>
+  <si>
+    <t>Accepted, Decline, no response.. Wunschvorstellungen --&gt;  aber das muss man selber händisch eingeben</t>
+  </si>
+  <si>
+    <t>Absendeadresse, die im Sekreteriat herumliegt und auch von da betreut wird.</t>
+  </si>
+  <si>
+    <t>nur Massenmails meines Wissens</t>
+  </si>
+  <si>
+    <t>das weiß ich nicht und es gibt auch keine Schnittstelle</t>
+  </si>
+  <si>
+    <t>meines Wissens keine außer Listenanzeige</t>
+  </si>
+  <si>
+    <t>meines Wissens muss man das manuell verschieben, es gibt keine Eiinschränkung auf Jahre</t>
+  </si>
+  <si>
+    <t>im Momn zu keinen..sinnvoll wäre es zur Gruppe.. Sprich E-Mail-Kalendar</t>
+  </si>
+  <si>
+    <t>keine Ahnung</t>
+  </si>
+  <si>
+    <t>keine Ahnung, habe schreib und leserecht</t>
+  </si>
+  <si>
+    <t>mailadresse und psw glaube ich</t>
+  </si>
+  <si>
+    <t>kA, macht der Techniker</t>
+  </si>
+  <si>
+    <t>mit allen --&gt; Windows, OSX und Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenn wir eine Datenmigration machen müssen --&gt; kein Problem wenn das System nicht geht. </t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>im Jahr werden durchschnittlich 4 Events verwaltet.. Könnten jedoch noch mehr werden</t>
+  </si>
+  <si>
+    <t>es geht um ein Customer Relationship Management System.. Informationen über Kunden sammeln .. Welche Kunden sind zukünftige Kunden.. Key Customers - besonders wichtige Kunden</t>
+  </si>
+  <si>
+    <t>Für unser CRM ist es am wichtigsten dss es ein ordetliches Eventmanagement kann.. Wie sind die Kunden mit uns verbunden..? Ehemalige Projektpartner/Studenten..? Kategorien bilden können und für welches Event sie eingeladen w erden sollen.. Dass dieses Eventmanagement soll gut  gestaltet weden können</t>
+  </si>
+  <si>
+    <t>prinnzipiell gut ass es eine Opensource ist.. Dokumentation und Sourcecode reinschauen.. Auf dem ersten Blick relativ viel intuitiv mögllich.. In Untermenüs kann man was ändern etc. diese Möglichkeiten gefallen mir sehr gut und es waren wenige Einschulungen notwendig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was oberflächlich einfach ist,in der Tiefe komplex.. Wenn ich nach einem Account suche, dann ist es nicht gleich in der Datenbank und man kann nicht danach suchen sondern es ist iwo in einem Zwischenspeicher zwischengespeichert.. Unklarheiten bei einzelnen Bezeichnungen.. zu kraeativ auf manchen Sachen.. es ist ziemlich langsam (beimLOGIN zb).. dauert alles sehr lange.. größtes Problem ist dieses Eventtool... man kann NICHT vollautomatisiert Einladungen ausschicken.. wenn jemand nicht kann und dann aufeinmal doch kann dann braucht man 3 Klicks mindestens um es umzuändern.. man kann nicht sortieren oder exportieren, die zb auf Akzeptiert sind.. Eventmodul ausbaufähig und der Rest geht eigentlich.. Zusatzinformationen können nicht von mi und David eingetragen werden </t>
+  </si>
+  <si>
+    <t>vll werden es 500, mehr meiner Meinung nicht..</t>
+  </si>
+  <si>
+    <t>keine Ahnung.. Ich habe noch nie iwelche Dokumente abgelegt, habe ich nicht bisherebraucht</t>
+  </si>
+  <si>
+    <t>Sekreteriat, Techniker, 3-4 Personen, die für die Events verantwortlich sind.. Zukünftig maximal 15 Leute</t>
+  </si>
+  <si>
+    <t>wenn es nicht aufMobilgeräten gut funktioniert.. Es wäre sehr gut wenn es auf Mobilgeräten funktioniert wie auf Standrechnern.. Kein Cloudbasiertes CRMSystem, sonst bin ich anpassungsfähig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit den Events, Accounts und Kontakte.. Hinzufügen von Personen, die ich für interessant halte mache ich selber in der Regel.. </t>
+  </si>
+  <si>
+    <t>aktuell von Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listendarstellungen und in Campaigns auch prozentuele Darstellungen.. Eher Listen.. </t>
+  </si>
+  <si>
+    <t>Keine Ahnungen, mir ist nicht aufgefallen dass es beim Kontakt eine Warnfunktion gibt.. Bei Account schon.. Automatische Dublettenerkenneung --&gt; keine Ahnung</t>
+  </si>
+  <si>
+    <t>nein, nicht relevant</t>
+  </si>
+  <si>
+    <t>kann man, das weiß ich.. Wenn man ein Suchbegriff eingibt dann sucht er überall</t>
+  </si>
+  <si>
+    <t>gut und einfach.. Erwarten, dass wir einfach eine Liste der Leuter erstellen können die wir zu bestimmten Events einladen können.. Selbst ohne technische Hilfe Mails verschicken können.. Status einfach umändern können.. Dass wir sortieren konnen (nach accept und decline und nicht beantwortet) RemiderMail an die, die nicht geantwortet haben.. Persönlcihe Ansprache wäre schön.. gibt es zurzeit nicht.. wünschenswert aber nicht höchste Priorität..</t>
+  </si>
+  <si>
+    <t>kann ich nicht beatwoeren, weiß ich nicht</t>
+  </si>
+  <si>
+    <t>ich habe keine Ahnung.. Wunschvorstellung: einfach selbst zu bedienen ohne viel Hilfe von Michael Holubek.. Feedback wie zb: wurde versendet.. "warning" etc.. Je einfacher desto besser</t>
+  </si>
+  <si>
+    <t>bei kleine Events 50-70 .. Kommen 30-50.. Bei große --&gt; an alle in der Datenbank und 100-150 kommen</t>
+  </si>
+  <si>
+    <t>Alle Mails die auf reply drücken kommen zur Angela und diese werden bei ihr in bestimmte Folder unterstützt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">einzel Mails und Michi mit einem Trick Massenmails.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gar nicht. Nicht im Tool </t>
+  </si>
+  <si>
+    <t>vorhanden --&gt; keine Ahnung.. Relevant --&gt; wünschenswert wäre Export ins Excel oder Word.. Echte Schnittstellen ans Mailsystem falls notwendig sonst wüsste ich keine</t>
+  </si>
+  <si>
+    <t>Adminrolle, sonst alle User..glaube ich.. Weiß nicht genau</t>
+  </si>
+  <si>
+    <t>Username PSw</t>
+  </si>
+  <si>
+    <t>keine Ahnung macht Michi</t>
+  </si>
+  <si>
+    <t>User und Clientseite mit allen .. Linux und Windows..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Monat vor Event sollte es nicht ausfallen.. Ab Anfang Juni und Ende Mai sollte es nicht mehr ausfallen.. </t>
+  </si>
+  <si>
+    <t>Newsletter vielleicht, viel mehr Erweiterung nicht.. Sind nicht konkret geplant..</t>
   </si>
 </sst>
 </file>
@@ -1007,15 +1193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
@@ -1060,8 +1246,12 @@
       <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1" thickBot="1">
@@ -1074,8 +1264,12 @@
       <c r="C5" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="14">
@@ -1088,7 +1282,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6" ht="140">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1098,11 +1292,15 @@
       <c r="C7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="126">
       <c r="A8" s="25" t="s">
         <v>14</v>
       </c>
@@ -1112,11 +1310,15 @@
       <c r="C8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="42">
+    <row r="9" spans="1:6" ht="84">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1127,10 +1329,12 @@
         <v>108</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="42">
+    <row r="10" spans="1:6" ht="70">
       <c r="A10" s="25" t="s">
         <v>51</v>
       </c>
@@ -1140,11 +1344,15 @@
       <c r="C10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="28">
+    <row r="11" spans="1:6" ht="70">
       <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1360,9 @@
       <c r="C11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
@@ -1166,8 +1376,12 @@
       <c r="C12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="28">
@@ -1182,7 +1396,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="28">
+    <row r="14" spans="1:6" ht="84">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1190,11 +1404,15 @@
       <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="28">
+    <row r="15" spans="1:6" ht="42">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1202,8 +1420,12 @@
         <v>71</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="28">
@@ -1256,7 +1478,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:16384" ht="56">
+    <row r="21" spans="1:16384" ht="70">
       <c r="A21" s="25" t="s">
         <v>57</v>
       </c>
@@ -1267,17 +1489,21 @@
         <v>98</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:16384" ht="14">
+    <row r="22" spans="1:16384" ht="42">
       <c r="A22" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:16384" ht="29" thickBot="1">
@@ -1290,8 +1516,12 @@
       <c r="C23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="HX23" s="6"/>
       <c r="HY23" s="6"/>
@@ -17456,7 +17686,6 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="HX24" s="20"/>
       <c r="HY24" s="20"/>
@@ -33612,7 +33841,7 @@
       <c r="XFC24" s="20"/>
       <c r="XFD24" s="20"/>
     </row>
-    <row r="25" spans="1:16384" ht="28">
+    <row r="25" spans="1:16384" ht="56">
       <c r="A25" s="25" t="s">
         <v>59</v>
       </c>
@@ -33622,8 +33851,12 @@
       <c r="C25" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="HX25" s="20"/>
       <c r="HY25" s="20"/>
@@ -49779,7 +50012,7 @@
       <c r="XFC25" s="20"/>
       <c r="XFD25" s="20"/>
     </row>
-    <row r="26" spans="1:16384" s="5" customFormat="1" ht="28">
+    <row r="26" spans="1:16384" s="5" customFormat="1" ht="112">
       <c r="A26" s="25" t="s">
         <v>37</v>
       </c>
@@ -49789,8 +50022,12 @@
       <c r="C26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -50018,7 +50255,7 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" s="12" customFormat="1" ht="29" thickBot="1">
+    <row r="27" spans="1:16384" s="12" customFormat="1" ht="85" thickBot="1">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
@@ -50028,8 +50265,12 @@
       <c r="C27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -50257,7 +50498,7 @@
       <c r="HV27" s="1"/>
       <c r="HW27" s="1"/>
     </row>
-    <row r="28" spans="1:16384" ht="43" thickBot="1">
+    <row r="28" spans="1:16384" ht="85" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>60</v>
       </c>
@@ -50267,8 +50508,12 @@
       <c r="C28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:16384" ht="28">
@@ -50291,7 +50536,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:16384" ht="42">
+    <row r="31" spans="1:16384" ht="126">
       <c r="A31" s="19" t="s">
         <v>62</v>
       </c>
@@ -50299,11 +50544,15 @@
         <v>79</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:16384" ht="28">
+    <row r="32" spans="1:16384" ht="56">
       <c r="A32" s="25" t="s">
         <v>63</v>
       </c>
@@ -50313,11 +50562,15 @@
       <c r="C32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="28">
+    <row r="33" spans="1:6" ht="70">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -50325,8 +50578,12 @@
         <v>81</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="28">
@@ -50337,11 +50594,13 @@
         <v>250</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="28">
+    <row r="35" spans="1:6" ht="168">
       <c r="A35" s="26" t="s">
         <v>42</v>
       </c>
@@ -50351,11 +50610,15 @@
       <c r="C35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="28">
+    <row r="36" spans="1:6" ht="42">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
@@ -50363,11 +50626,15 @@
         <v>83</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="28">
+    <row r="37" spans="1:6" ht="140">
       <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
@@ -50375,8 +50642,12 @@
         <v>84</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="29" thickBot="1">
@@ -50409,7 +50680,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="28">
+    <row r="41" spans="1:6" ht="70">
       <c r="A41" s="25" t="s">
         <v>31</v>
       </c>
@@ -50419,11 +50690,15 @@
       <c r="C41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="14">
+    <row r="42" spans="1:6" ht="28">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -50432,7 +50707,9 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="28">
@@ -50477,7 +50754,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="56">
+    <row r="47" spans="1:6" ht="168">
       <c r="A47" s="25" t="s">
         <v>36</v>
       </c>
@@ -50487,11 +50764,15 @@
       <c r="C47" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="10"/>
+      <c r="D47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="28">
+    <row r="48" spans="1:6" ht="98">
       <c r="A48" s="25" t="s">
         <v>41</v>
       </c>
@@ -50501,11 +50782,15 @@
       <c r="C48" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="28">
+    <row r="49" spans="1:6" ht="42">
       <c r="A49" s="26" t="s">
         <v>46</v>
       </c>
@@ -50514,10 +50799,12 @@
         <v>101</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="28">
+    <row r="50" spans="1:6" ht="56">
       <c r="A50" s="27" t="s">
         <v>48</v>
       </c>
@@ -50527,11 +50814,15 @@
       <c r="C50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="28">
+    <row r="51" spans="1:6" ht="42">
       <c r="A51" s="27" t="s">
         <v>49</v>
       </c>
@@ -50541,8 +50832,12 @@
       <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="29" thickBot="1">
@@ -50553,8 +50848,12 @@
       <c r="C52" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="14">
@@ -50574,7 +50873,9 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1">
@@ -50625,7 +50926,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="29" thickBot="1">
+    <row r="60" spans="1:6" ht="141" thickBot="1">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
@@ -50635,11 +50936,15 @@
       <c r="C60" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="5"/>
+      <c r="D60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="14">
+    <row r="61" spans="1:6" ht="56">
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
@@ -50648,10 +50953,12 @@
         <v>118</v>
       </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="28">
+    <row r="62" spans="1:6" ht="42">
       <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
@@ -50661,8 +50968,12 @@
       <c r="C62" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="F62" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="28">

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EEA33C-9DBE-7D4B-8F14-12D673EF32F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2238BD-355D-7A45-8D27-7BEB80E689EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1193,15 +1193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="28">
+    <row r="13" spans="1:6" ht="84">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="28">
+    <row r="16" spans="1:6" ht="98">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -50712,7 +50712,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="28">
+    <row r="43" spans="1:6" ht="56">
       <c r="A43" s="26" t="s">
         <v>33</v>
       </c>

--- a/Interview zur Anforderungserhebung.xlsx
+++ b/Interview zur Anforderungserhebung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2238BD-355D-7A45-8D27-7BEB80E689EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EEA33C-9DBE-7D4B-8F14-12D673EF32F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1193,15 +1193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="84">
+    <row r="13" spans="1:6" ht="28">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="98">
+    <row r="16" spans="1:6" ht="28">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -50712,7 +50712,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="56">
+    <row r="43" spans="1:6" ht="28">
       <c r="A43" s="26" t="s">
         <v>33</v>
       </c>
